--- a/ListasDatos/González Nuñez Veronica_2021.xlsx
+++ b/ListasDatos/González Nuñez Veronica_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1406">
   <si>
     <t>NC</t>
   </si>
@@ -493,15 +493,213 @@
     <t>2721712088</t>
   </si>
   <si>
+    <t>NICOLASA SAVALA PELAYO</t>
+  </si>
+  <si>
+    <t>ANDRES BARRAGAN SANTOS</t>
+  </si>
+  <si>
+    <t>MARIA RAMÍREZ RAMÍREZ</t>
+  </si>
+  <si>
+    <t>EUSTOLIA HERNANDEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>ROSA TZOMPAXTLE CERÓN</t>
+  </si>
+  <si>
+    <t>GLORIA PINEDA GARCÍA</t>
+  </si>
+  <si>
+    <t>LUZ VIANNEY MARCELINO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>GLADIS ALEJANDRA MONTAVO CHACÓN</t>
+  </si>
+  <si>
+    <t>SARA VILLA LUNA</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
+  </si>
+  <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
+    <t>ANDRES GARCIA MONTIEL</t>
+  </si>
+  <si>
     <t>HEIDI AMELIA CAPORAL MORALES</t>
   </si>
   <si>
+    <t>JESUS SILVANO HERNANDEZ GARCIA</t>
+  </si>
+  <si>
+    <t>ESPERANZA LIBRADO CORONADA</t>
+  </si>
+  <si>
+    <t>MARCOS LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH FLORES GARCÍA</t>
+  </si>
+  <si>
+    <t>MARIA LUCRECIA RODRIGUEZ MORENO</t>
+  </si>
+  <si>
+    <t>HECTOR AURELIO MONT SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALMA DELIA FLORES SAN PEDRO</t>
+  </si>
+  <si>
+    <t>ELSA JASMIN PAZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>ASUNCIÓN CASTILLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO QUERO RIVERA</t>
+  </si>
+  <si>
+    <t>KATIE MAGDALENA VILLEGAS GARRIDO</t>
+  </si>
+  <si>
+    <t>NATIVIDAD TLAXCALTECA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOCORRO ARELLANO BERNABE</t>
+  </si>
+  <si>
+    <t>ELENA OLGA CASTRO MELCHOR</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA MONTIEL AGUILAR</t>
+  </si>
+  <si>
+    <t>MARCELA FELICITAS XOTLANIHUA COLOHUA</t>
+  </si>
+  <si>
+    <t>diego123ramirez@icloud.com</t>
+  </si>
+  <si>
+    <t>eushernandez93@gmail.com</t>
+  </si>
+  <si>
+    <t>rousgartzg@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloriapineda8121@gmail.com</t>
+  </si>
+  <si>
+    <t>luxviann1626@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gmail.com</t>
+  </si>
+  <si>
     <t>franciscologan736@gmail.com</t>
   </si>
   <si>
+    <t>hildahernandez0011@gmail.com</t>
+  </si>
+  <si>
+    <t>esperanzacoronado795@gmail.com</t>
+  </si>
+  <si>
+    <t>distribuidor.imperio@gmail.com</t>
+  </si>
+  <si>
+    <t>elizabethflores110181@gmail.com</t>
+  </si>
+  <si>
+    <t>montlunah@gmail.com</t>
+  </si>
+  <si>
+    <t>elsajasminpaz@gmail.com</t>
+  </si>
+  <si>
+    <t>asuncast1508@gmail.com</t>
+  </si>
+  <si>
+    <t>fanasa122@gmail.com</t>
+  </si>
+  <si>
+    <t>abrilreyes353@gmail.com</t>
+  </si>
+  <si>
+    <t>socorroarellano410@gmail.com</t>
+  </si>
+  <si>
+    <t>elenaolgac05@hotmail.com</t>
+  </si>
+  <si>
+    <t>anagabrielamontielaguilar@gmil.com</t>
+  </si>
+  <si>
+    <t>marce_felicitas@hotmeil.com</t>
+  </si>
+  <si>
+    <t>2721149969</t>
+  </si>
+  <si>
+    <t>272207941q</t>
+  </si>
+  <si>
+    <t>2721875959</t>
+  </si>
+  <si>
+    <t>2722249426</t>
+  </si>
+  <si>
+    <t>2722973644</t>
+  </si>
+  <si>
+    <t>2721877112</t>
+  </si>
+  <si>
+    <t>2722337781</t>
+  </si>
+  <si>
+    <t>2721349831</t>
+  </si>
+  <si>
+    <t>2721428630</t>
+  </si>
+  <si>
     <t>27223064448</t>
   </si>
   <si>
+    <t>2721466616</t>
+  </si>
+  <si>
+    <t>2721968779</t>
+  </si>
+  <si>
+    <t>2727210379</t>
+  </si>
+  <si>
+    <t>2721991474</t>
+  </si>
+  <si>
+    <t>2722600364</t>
+  </si>
+  <si>
+    <t>2721567675</t>
+  </si>
+  <si>
+    <t>2721981229</t>
+  </si>
+  <si>
+    <t>2722229520</t>
+  </si>
+  <si>
+    <t>2721680521</t>
+  </si>
+  <si>
+    <t>2721312391</t>
+  </si>
+  <si>
     <t>AVENDAÑO</t>
   </si>
   <si>
@@ -1543,7 +1741,7 @@
     <t>2721273861</t>
   </si>
   <si>
-    <t>2722193554</t>
+    <t>2721193554</t>
   </si>
   <si>
     <t>2722053183</t>
@@ -1552,288 +1750,315 @@
     <t>2721355154</t>
   </si>
   <si>
+    <t>2722816907</t>
+  </si>
+  <si>
+    <t>2722287435</t>
+  </si>
+  <si>
+    <t>2721177435</t>
+  </si>
+  <si>
+    <t>2722088929</t>
+  </si>
+  <si>
+    <t>2721534047</t>
+  </si>
+  <si>
+    <t>2721142904</t>
+  </si>
+  <si>
+    <t>2722604696</t>
+  </si>
+  <si>
+    <t>2722627552</t>
+  </si>
+  <si>
+    <t>2721561624</t>
+  </si>
+  <si>
+    <t>2721633698</t>
+  </si>
+  <si>
+    <t>2721285204</t>
+  </si>
+  <si>
+    <t>2721318867</t>
+  </si>
+  <si>
+    <t>2721398184</t>
+  </si>
+  <si>
+    <t>2722586828</t>
+  </si>
+  <si>
+    <t>2721853349</t>
+  </si>
+  <si>
+    <t>2721759296</t>
+  </si>
+  <si>
+    <t>2723354804</t>
+  </si>
+  <si>
+    <t>2721538302</t>
+  </si>
+  <si>
+    <t>2722174482</t>
+  </si>
+  <si>
+    <t>2721325686</t>
+  </si>
+  <si>
+    <t>2991698493</t>
+  </si>
+  <si>
+    <t>2721675673</t>
+  </si>
+  <si>
+    <t>2721170625</t>
+  </si>
+  <si>
+    <t>2722371970</t>
+  </si>
+  <si>
+    <t>2722170073</t>
+  </si>
+  <si>
+    <t>2722174781</t>
+  </si>
+  <si>
+    <t>2721734237</t>
+  </si>
+  <si>
+    <t>2281165323</t>
+  </si>
+  <si>
+    <t>ISAAC ANTONIO CASTELLANOS VALDES</t>
+  </si>
+  <si>
+    <t>JOSÉ ALBERTO CARRERA VENTURA</t>
+  </si>
+  <si>
+    <t>IRENE MINERVA GONZÁLEZ REYES</t>
+  </si>
+  <si>
+    <t>IRVING CORONA ROQUE</t>
+  </si>
+  <si>
+    <t>DANIEL CUATRA CANDELARIA</t>
+  </si>
+  <si>
+    <t>JAVIER FLORES CARRERA</t>
+  </si>
+  <si>
+    <t>OSCAR GARCIA CONTRERAS</t>
+  </si>
+  <si>
+    <t>YAZMIN SANTIAGO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>PABLO GONZALEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL HERNÁNDEZ TEPOLE</t>
+  </si>
+  <si>
+    <t>AGUSTÍN HERNÁNDEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>VALENTIN HERNÁNDEZ REYES</t>
+  </si>
+  <si>
+    <t>URBANO JIMÉNEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>MARICELA BASILIO PELLICO</t>
+  </si>
+  <si>
+    <t>MARÍA DEL CARMEN LÓPEZ NOYOLA</t>
+  </si>
+  <si>
+    <t>FRANCISCO LOPEZ MONTIEL</t>
+  </si>
+  <si>
+    <t>GERMÁN XALAMIHUA TEHUINTLE</t>
+  </si>
+  <si>
+    <t>ROSA HERRERA RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>IVAN MARCIAL CERVANTES</t>
+  </si>
+  <si>
+    <t>MARTHA MAYAHUA XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>RAFAEL MORALES VIVANCO</t>
+  </si>
+  <si>
+    <t>APOLINAR OLTEHUA XICALHUA</t>
+  </si>
+  <si>
+    <t>CESAR OLIVARES REYES</t>
+  </si>
+  <si>
+    <t>ESTHELA LIZBETH MACHORRO GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>CRESCENCIANO PACHECO XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>UBALDO CHRISTIAN RIVERA SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>PEDRO RODRIGUEZ LEYVA</t>
+  </si>
+  <si>
+    <t>REYNA CASTRO CRUZ</t>
+  </si>
+  <si>
+    <t>FERNANDO MARTINEZ TORRES</t>
+  </si>
+  <si>
+    <t>GUILLERMO RUIZ ZARAGOZA</t>
+  </si>
+  <si>
+    <t>GLORIA ADRIANA RAMON BAUTISTA</t>
+  </si>
+  <si>
+    <t>ENEDINA ROSALBA ORTEGA GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>CONSTANTINO TORRES MEZA</t>
+  </si>
+  <si>
+    <t>JULIÁN EDGAR TRUJILLO BAEZ</t>
+  </si>
+  <si>
+    <t>GERARDO VELAZQUEZ ROMAN</t>
+  </si>
+  <si>
+    <t>castellanosantonio1744@gmail.com</t>
+  </si>
+  <si>
+    <t>Josealbertocarreraventura@gmail.com</t>
+  </si>
+  <si>
+    <t>kyo1189@hotmail.com</t>
+  </si>
+  <si>
+    <t>Marthacuatra6@gmail.com</t>
+  </si>
+  <si>
+    <t>lc6209064@gmail.com</t>
+  </si>
+  <si>
+    <t>Emelinjiromijuarez@gmail.com</t>
+  </si>
+  <si>
+    <t>Yeidisan150@gmail.com</t>
+  </si>
+  <si>
+    <t>Pabis_82@hotmail.es</t>
+  </si>
+  <si>
+    <t>agustinhernandez27330@gmail.com</t>
+  </si>
+  <si>
+    <t>jesussambu0129@gmail.com</t>
+  </si>
+  <si>
+    <t>moon_985@hotmail.com</t>
+  </si>
+  <si>
+    <t>Macarmen _noyola10@outlok.com</t>
+  </si>
+  <si>
+    <t>valentinmarroquin8@gmail.com</t>
+  </si>
+  <si>
+    <t>cervantesivan548@gmail.com</t>
+  </si>
+  <si>
+    <t>eliseomaya1707@gmail.com</t>
+  </si>
+  <si>
+    <t>Apolinaroltehua50@gmail.com</t>
+  </si>
+  <si>
+    <t>maryferolivares0806@gmail.com</t>
+  </si>
+  <si>
+    <t>Glizbeth105@gmail.com</t>
+  </si>
+  <si>
+    <t>ivettemazahua@gmail.com</t>
+  </si>
+  <si>
+    <t>reynacastrocruz5186@gmail.com</t>
+  </si>
+  <si>
+    <t>fhermtzts@gmail.com</t>
+  </si>
+  <si>
+    <t>jalohu@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ari_1223@hotmail.es</t>
+  </si>
+  <si>
+    <t>Juligar437@gmail.com</t>
+  </si>
+  <si>
+    <t>gevero.cmt@gmail.com</t>
+  </si>
+  <si>
+    <t>2721198606</t>
+  </si>
+  <si>
+    <t>2721692007</t>
+  </si>
+  <si>
+    <t>2721913160</t>
+  </si>
+  <si>
+    <t>2722867518</t>
+  </si>
+  <si>
+    <t>2294934088</t>
+  </si>
+  <si>
+    <t>2721299775</t>
+  </si>
+  <si>
+    <t>16017107153</t>
+  </si>
+  <si>
+    <t>2722488237</t>
+  </si>
+  <si>
+    <t>2722843291</t>
+  </si>
+  <si>
+    <t>2721964806</t>
+  </si>
+  <si>
+    <t>2722455135</t>
+  </si>
+  <si>
+    <t>2721831445</t>
+  </si>
+  <si>
+    <t>2722832060</t>
+  </si>
+  <si>
+    <t>2721558780</t>
+  </si>
+  <si>
     <t>2722342238</t>
   </si>
   <si>
-    <t>2722287435</t>
-  </si>
-  <si>
-    <t>2721177435</t>
-  </si>
-  <si>
-    <t>2722088929</t>
-  </si>
-  <si>
-    <t>2721534047</t>
-  </si>
-  <si>
-    <t>2721142904</t>
-  </si>
-  <si>
-    <t>2722604696</t>
-  </si>
-  <si>
-    <t>2722627552</t>
-  </si>
-  <si>
-    <t>2721561624</t>
-  </si>
-  <si>
-    <t>2721633698</t>
-  </si>
-  <si>
-    <t>2721285204</t>
-  </si>
-  <si>
-    <t>2721318867</t>
-  </si>
-  <si>
-    <t>2721398184</t>
-  </si>
-  <si>
-    <t>2722586828</t>
-  </si>
-  <si>
-    <t>2721853349</t>
-  </si>
-  <si>
-    <t>2721759296</t>
-  </si>
-  <si>
-    <t>2723354804</t>
-  </si>
-  <si>
-    <t>2721538302</t>
-  </si>
-  <si>
-    <t>2722174482</t>
-  </si>
-  <si>
-    <t>2721325686</t>
-  </si>
-  <si>
-    <t>2991698493</t>
-  </si>
-  <si>
-    <t>2721675673</t>
-  </si>
-  <si>
-    <t>2721170625</t>
-  </si>
-  <si>
-    <t>2722371970</t>
-  </si>
-  <si>
-    <t>2722170073</t>
-  </si>
-  <si>
-    <t>2722174781</t>
-  </si>
-  <si>
-    <t>2721734237</t>
-  </si>
-  <si>
-    <t>2281165323</t>
-  </si>
-  <si>
-    <t>ISAAC ANTONIO CASTELLANOS VALDES</t>
-  </si>
-  <si>
-    <t>JOSÉ ALBERTO CARRERA VENTURA</t>
-  </si>
-  <si>
-    <t>IRVING CORONA ROQUE</t>
-  </si>
-  <si>
-    <t>DANIEL CUATRA CANDELARIA</t>
-  </si>
-  <si>
-    <t>JAVIER FLORES CARRERA</t>
-  </si>
-  <si>
-    <t>OSCAR GARCIA CONTRERAS</t>
-  </si>
-  <si>
-    <t>YAZMIN SANTIAGO HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>PABLO GONZALEZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL HERNÁNDEZ TEPOLE</t>
-  </si>
-  <si>
-    <t>AGUSTÍN HERNÁNDEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>VALENTIN HERNÁNDEZ REYES</t>
-  </si>
-  <si>
-    <t>URBANO JIMÉNEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>JOSUE (FINADO) LIMON SANCHEZ</t>
-  </si>
-  <si>
-    <t>FRANCISCO LOPEZ MONTIEL</t>
-  </si>
-  <si>
-    <t>GERMÁN XALAMIHUA TEHUINTLE</t>
-  </si>
-  <si>
-    <t>IVAN MARCIAL CERVANTES</t>
-  </si>
-  <si>
-    <t>MARTHA MAYAHUA XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>RAFAEL MORALES VIVANCO</t>
-  </si>
-  <si>
-    <t>APOLINAR OLTEHUA XICALHUA</t>
-  </si>
-  <si>
-    <t>CESAR OLIVARES REYES</t>
-  </si>
-  <si>
-    <t>CRESCENCIANO PACHECO XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>UBALDO CHRISTIAN RIVERA SÁNCHEZ</t>
-  </si>
-  <si>
-    <t>PEDRO RODRIGUEZ LEYVA</t>
-  </si>
-  <si>
-    <t>REYNA CASTRO CRUZ</t>
-  </si>
-  <si>
-    <t>FERNANDO MARTINEZ TORRES</t>
-  </si>
-  <si>
-    <t>GUILLERMO RUIZ ZARAGOZA</t>
-  </si>
-  <si>
-    <t>GLORIA ADRIANA RAMON BAUTISTA</t>
-  </si>
-  <si>
-    <t>ENEDINA ROSALBA ORTEGA GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>CONSTANTINO TORRES MEZA</t>
-  </si>
-  <si>
-    <t>JULIÁN EDGAR TRUJILLO BAEZ</t>
-  </si>
-  <si>
-    <t>GERARDO VELAZQUEZ ROMAN</t>
-  </si>
-  <si>
-    <t>castellanosantonio1744@gmail.com</t>
-  </si>
-  <si>
-    <t>Josealbertocarreraventura@gmail.com</t>
-  </si>
-  <si>
-    <t>kyo1189@hotmail.com</t>
-  </si>
-  <si>
-    <t>Marthacuatra6@gmail.com</t>
-  </si>
-  <si>
-    <t>lc6209064@gmail.com</t>
-  </si>
-  <si>
-    <t>Emelinjiromijuarez@gmail.com</t>
-  </si>
-  <si>
-    <t>Yeidisan150@gmail.com</t>
-  </si>
-  <si>
-    <t>Pabis_82@hotmail.es</t>
-  </si>
-  <si>
-    <t>agustinhernandez27330@gmail.com</t>
-  </si>
-  <si>
-    <t>jesussambu0129@gmail.com</t>
-  </si>
-  <si>
-    <t>moon_985@hotmail.com</t>
-  </si>
-  <si>
-    <t>LopezmontielF3gmail.com</t>
-  </si>
-  <si>
-    <t>cervantesivan548@gmail.com</t>
-  </si>
-  <si>
-    <t>eliseomaya1707@gmail.com</t>
-  </si>
-  <si>
-    <t>Apolinaroltehua50@gmail.com</t>
-  </si>
-  <si>
-    <t>maryferolivares0806@gmail.com</t>
-  </si>
-  <si>
-    <t>ivettemazahua@gmail.com</t>
-  </si>
-  <si>
-    <t>reynacastrocruz5186@gmail.com</t>
-  </si>
-  <si>
-    <t>fhermtzts@gmail.com</t>
-  </si>
-  <si>
-    <t>jalohu@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ari_1223@hotmail.es</t>
-  </si>
-  <si>
-    <t>Juligar437@gmail.com</t>
-  </si>
-  <si>
-    <t>gevero.cmt@gmail.com</t>
-  </si>
-  <si>
-    <t>2721198606</t>
-  </si>
-  <si>
-    <t>2721692007</t>
-  </si>
-  <si>
-    <t>2722867518</t>
-  </si>
-  <si>
-    <t>2294934088</t>
-  </si>
-  <si>
-    <t>2721299775</t>
-  </si>
-  <si>
-    <t>16017107153</t>
-  </si>
-  <si>
-    <t>2722488237</t>
-  </si>
-  <si>
-    <t>2722843291</t>
-  </si>
-  <si>
-    <t>2721964806</t>
-  </si>
-  <si>
-    <t>2722455135</t>
-  </si>
-  <si>
-    <t>2722832060</t>
-  </si>
-  <si>
-    <t>2721558780</t>
-  </si>
-  <si>
     <t>2721285853</t>
   </si>
   <si>
@@ -1846,6 +2071,9 @@
     <t>2721045001</t>
   </si>
   <si>
+    <t>2722129324</t>
+  </si>
+  <si>
     <t>2721646081</t>
   </si>
   <si>
@@ -2086,6 +2314,9 @@
     <t>itzelcast2020@gmail.com</t>
   </si>
   <si>
+    <t>shadaijuarez@gmail.com</t>
+  </si>
+  <si>
     <t>jefe86748@gmail.com</t>
   </si>
   <si>
@@ -2113,6 +2344,9 @@
     <t>ir673820@gmail.com</t>
   </si>
   <si>
+    <t>susanaromerozac@outlook.com</t>
+  </si>
+  <si>
     <t>alejandrasanchezhuerta1@gmail.com</t>
   </si>
   <si>
@@ -2173,6 +2407,9 @@
     <t>2722974524</t>
   </si>
   <si>
+    <t>2722078578</t>
+  </si>
+  <si>
     <t>2721058065</t>
   </si>
   <si>
@@ -2200,6 +2437,9 @@
     <t>2722361219</t>
   </si>
   <si>
+    <t>2721941069</t>
+  </si>
+  <si>
     <t>2722057137</t>
   </si>
   <si>
@@ -2245,7 +2485,7 @@
     <t>2727247557</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722433108</t>
@@ -2272,7 +2512,7 @@
     <t>ARIANA CRUZ DURÁN</t>
   </si>
   <si>
-    <t>JESÚS ESTEVEZ ALCÁNTARA ESTEVEZ MORENO</t>
+    <t>JESÚS ESTEVEZ ALCANTARA</t>
   </si>
   <si>
     <t>VERÓNICA ESPERÓN MORA</t>
@@ -2296,6 +2536,9 @@
     <t>BERTHA CASTILLO SANCHEZ</t>
   </si>
   <si>
+    <t>MARÍA GUADALUPE LILY JUAREZ TLATELPA</t>
+  </si>
+  <si>
     <t>OMAR DE LA LUZ GARCIA</t>
   </si>
   <si>
@@ -2374,6 +2617,9 @@
     <t>Berthacastillo3702@gmail.com</t>
   </si>
   <si>
+    <t>guadalupejuarez1525@gmail.com</t>
+  </si>
+  <si>
     <t>El13333@@mail.com</t>
   </si>
   <si>
@@ -2425,6 +2671,9 @@
     <t>2721922184</t>
   </si>
   <si>
+    <t>2722602078</t>
+  </si>
+  <si>
     <t>2722834883</t>
   </si>
   <si>
@@ -2692,7 +2941,7 @@
     <t>2726892718</t>
   </si>
   <si>
-    <t>52272200000000000</t>
+    <t>5.22722e+16</t>
   </si>
   <si>
     <t>2727211100</t>
@@ -2773,7 +3022,10 @@
     <t>HUGO BÁEZ ROSAS</t>
   </si>
   <si>
-    <t>maberamirezramirez@gmail.com</t>
+    <t>Marchate1986@gmail.com</t>
+  </si>
+  <si>
+    <t>jdcastro@gmail.com</t>
   </si>
   <si>
     <t>luis.kaztello@gmail.com</t>
@@ -2818,6 +3070,9 @@
     <t>banda4203@hotmail.com</t>
   </si>
   <si>
+    <t>oficialsanchezmz@gmail.com</t>
+  </si>
+  <si>
     <t>fernandagonzales2267@gmail.com</t>
   </si>
   <si>
@@ -3013,7 +3268,7 @@
     <t>marcosflow285@gmail.com</t>
   </si>
   <si>
-    <t>jesussamuelgarcialeon96@gmail.com</t>
+    <t>erikaleonpalacios7@gmail.com</t>
   </si>
   <si>
     <t>roger123459876@gmail.com</t>
@@ -3157,7 +3412,7 @@
     <t>MIGUEL ÁNGEL RAMÍREZ MORENO</t>
   </si>
   <si>
-    <t>GUADALUPE ITSEL TEPEPA ROSAS</t>
+    <t>GUADALUPE ITZEL TEPEPA ROSAS</t>
   </si>
   <si>
     <t>JUAN MANUEL CANTELLAN CARRERA</t>
@@ -3190,7 +3445,7 @@
     <t>KARINA BAEZA HERNÁNDEZ</t>
   </si>
   <si>
-    <t>MIRIAM MOLINA MORALES MOLINA MORALES</t>
+    <t>MIRIAM MOLINA MORALES</t>
   </si>
   <si>
     <t>ANTONIA ROCIO RODRÍGUEZ SANCHEZ</t>
@@ -3259,6 +3514,9 @@
     <t>manuel.flomat@hotmail.com</t>
   </si>
   <si>
+    <t>Kelly_rivera_vargas@gmail.com</t>
+  </si>
+  <si>
     <t>jesus_ramirez_flores@outlook.com</t>
   </si>
   <si>
@@ -3583,6 +3841,9 @@
     <t>ceciliasuarez128@gmail.com</t>
   </si>
   <si>
+    <t>laishastefanytzanahuaguevara@gmail.com</t>
+  </si>
+  <si>
     <t>yadiratexcahua@gmail.com</t>
   </si>
   <si>
@@ -3682,6 +3943,9 @@
     <t>2722362905</t>
   </si>
   <si>
+    <t>2722456950</t>
+  </si>
+  <si>
     <t>2722257040</t>
   </si>
   <si>
@@ -3757,6 +4021,9 @@
     <t>MARIA CRISTINA MARROQUIN CORONA</t>
   </si>
   <si>
+    <t>SANDRA DOMINGUEZ RIOS</t>
+  </si>
+  <si>
     <t>CRUZ FLORES JIMENEZ</t>
   </si>
   <si>
@@ -3781,6 +4048,9 @@
     <t>JAVIER MANUEL MANZANET HERNÁNDEZ</t>
   </si>
   <si>
+    <t>BEATRIZ MARTÍNEZ BERNAL</t>
+  </si>
+  <si>
     <t>ROGELIO MARQUEZ HERNANDEZ</t>
   </si>
   <si>
@@ -3814,6 +4084,9 @@
     <t>JOSÉ ANTONIO SUÁREZ LÓPEZ</t>
   </si>
   <si>
+    <t>ELIZABETH GUEVARA MOTA</t>
+  </si>
+  <si>
     <t>MARÍA VICTORIA GUADALUPE CABRERA BÁEZ</t>
   </si>
   <si>
@@ -3838,6 +4111,9 @@
     <t>panteraruca@gmail.com</t>
   </si>
   <si>
+    <t>alexxadomm03@gmail.com</t>
+  </si>
+  <si>
     <t>agl.1904.07@gmail.com</t>
   </si>
   <si>
@@ -3853,6 +4129,9 @@
     <t>huevin749@gmail.com</t>
   </si>
   <si>
+    <t>bottia082@gmail.com</t>
+  </si>
+  <si>
     <t>jaret9564@gmail.com</t>
   </si>
   <si>
@@ -3874,6 +4153,9 @@
     <t>antiojsmith14@gmail.com</t>
   </si>
   <si>
+    <t>guevaraelizabeth488@gmail.com</t>
+  </si>
+  <si>
     <t>baez94588@gmail.com</t>
   </si>
   <si>
@@ -3895,6 +4177,9 @@
     <t>2721206374</t>
   </si>
   <si>
+    <t>2722018429</t>
+  </si>
+  <si>
     <t>2721287650</t>
   </si>
   <si>
@@ -3916,6 +4201,9 @@
     <t>2721082864</t>
   </si>
   <si>
+    <t>2721525672</t>
+  </si>
+  <si>
     <t>2711012004</t>
   </si>
   <si>
@@ -3941,6 +4229,9 @@
   </si>
   <si>
     <t>2721016875</t>
+  </si>
+  <si>
+    <t>2721895648</t>
   </si>
   <si>
     <t>2721948449</t>
@@ -4373,6 +4664,15 @@
       <c r="G2" t="s">
         <v>143</v>
       </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -4396,6 +4696,12 @@
       <c r="G3" t="s">
         <v>144</v>
       </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -4416,6 +4722,15 @@
       <c r="F4" t="s">
         <v>117</v>
       </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -4439,6 +4754,15 @@
       <c r="G5" t="s">
         <v>145</v>
       </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -4459,6 +4783,15 @@
       <c r="F6" t="s">
         <v>119</v>
       </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -4482,6 +4815,15 @@
       <c r="G7" t="s">
         <v>146</v>
       </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -4502,6 +4844,15 @@
       <c r="F8" t="s">
         <v>121</v>
       </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -4522,6 +4873,12 @@
       <c r="G9" t="s">
         <v>147</v>
       </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -4545,6 +4902,12 @@
       <c r="G10" t="s">
         <v>148</v>
       </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -4565,6 +4928,15 @@
       <c r="F11" t="s">
         <v>123</v>
       </c>
+      <c r="H11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -4588,6 +4960,12 @@
       <c r="G12" t="s">
         <v>149</v>
       </c>
+      <c r="H12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -4611,6 +4989,15 @@
       <c r="G13" t="s">
         <v>150</v>
       </c>
+      <c r="H13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -4632,13 +5019,13 @@
         <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4663,6 +5050,15 @@
       <c r="G15" t="s">
         <v>127</v>
       </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -4686,8 +5082,17 @@
       <c r="G16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>21330051920124</v>
       </c>
@@ -4709,8 +5114,17 @@
       <c r="G17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>21330051920125</v>
       </c>
@@ -4732,8 +5146,17 @@
       <c r="G18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>21330051920126</v>
       </c>
@@ -4755,8 +5178,17 @@
       <c r="G19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>21330051920127</v>
       </c>
@@ -4778,8 +5210,17 @@
       <c r="G20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20330051920275</v>
       </c>
@@ -4798,8 +5239,17 @@
       <c r="F21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21330051920128</v>
       </c>
@@ -4821,8 +5271,17 @@
       <c r="G22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21330051920129</v>
       </c>
@@ -4841,8 +5300,17 @@
       <c r="G23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21330051920130</v>
       </c>
@@ -4861,8 +5329,17 @@
       <c r="F24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>21330051920131</v>
       </c>
@@ -4884,8 +5361,17 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>18330051920377</v>
       </c>
@@ -4907,8 +5393,17 @@
       <c r="G26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>21330051920132</v>
       </c>
@@ -4927,8 +5422,17 @@
       <c r="F27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20330051920152</v>
       </c>
@@ -4947,8 +5451,17 @@
       <c r="F28" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>21330051920133</v>
       </c>
@@ -4970,8 +5483,17 @@
       <c r="G29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>21330051920134</v>
       </c>
@@ -4989,6 +5511,15 @@
       </c>
       <c r="F30" t="s">
         <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5050,31 +5581,31 @@
         <v>20330051920041</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="J2" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5082,28 +5613,28 @@
         <v>20330051920071</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5111,31 +5642,31 @@
         <v>20330051920072</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5143,31 +5674,31 @@
         <v>20330051920073</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="G5" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="J5" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5175,31 +5706,31 @@
         <v>20330051920359</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="I6" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="J6" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5207,31 +5738,31 @@
         <v>20330051920074</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="I7" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="J7" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5239,31 +5770,31 @@
         <v>20330051920075</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="J8" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5271,28 +5802,28 @@
         <v>19330051920051</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="I9" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="J9" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5300,25 +5831,25 @@
         <v>20330051920077</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5329,28 +5860,28 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="I11" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="J11" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5361,28 +5892,28 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="H12" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="I12" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="J12" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5393,28 +5924,28 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="I13" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="J13" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5422,28 +5953,28 @@
         <v>20330051920084</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="H14" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="J14" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5451,31 +5982,31 @@
         <v>20330051920087</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="G15" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="I15" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="J15" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5483,31 +6014,31 @@
         <v>20330051920088</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="H16" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="I16" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="J16" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5515,31 +6046,31 @@
         <v>20330051920089</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
         <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="G17" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="H17" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="J17" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5547,25 +6078,25 @@
         <v>20330051920090</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="I18" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5573,28 +6104,28 @@
         <v>20330051920091</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="H19" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="I19" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="J19" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5605,28 +6136,28 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="G20" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="I20" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="J20" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5637,28 +6168,28 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="F21" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="I21" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="J21" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5669,22 +6200,22 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="H22" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5695,28 +6226,28 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="H23" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="I23" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="J23" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5727,28 +6258,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="G24" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="H24" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="J24" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5756,28 +6287,28 @@
         <v>20330051920061</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="I25" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5785,31 +6316,31 @@
         <v>20330051920062</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="G26" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="H26" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="J26" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5817,31 +6348,31 @@
         <v>20330051920063</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="I27" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="J27" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5849,31 +6380,31 @@
         <v>20330051920064</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="F28" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="G28" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="H28" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="I28" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="J28" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5881,31 +6412,31 @@
         <v>20330051920065</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="G29" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="I29" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="J29" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5913,31 +6444,31 @@
         <v>20330051920066</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="I30" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="J30" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5945,31 +6476,31 @@
         <v>20330051920068</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="E31" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="G31" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="H31" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="I31" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5977,31 +6508,31 @@
         <v>20330051920070</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="G32" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="H32" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="J32" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6015,25 +6546,25 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="E33" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="G33" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="H33" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="J33" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6041,31 +6572,31 @@
         <v>20330051920386</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G34" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="H34" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="I34" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="J34" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -6127,31 +6658,31 @@
         <v>20330051920115</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="G2" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="H2" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="J2" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6159,31 +6690,31 @@
         <v>20330051920116</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="G3" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="H3" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="I3" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="J3" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6191,19 +6722,28 @@
         <v>20330051920118</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="F4" t="s">
-        <v>495</v>
+        <v>561</v>
+      </c>
+      <c r="H4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J4" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6211,31 +6751,31 @@
         <v>20330051920119</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="E5" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="F5" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="G5" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="H5" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="J5" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6243,31 +6783,31 @@
         <v>20330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="F6" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="G6" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="H6" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="J6" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6281,25 +6821,25 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="F7" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="G7" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="H7" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="J7" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6310,28 +6850,28 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="E8" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="F8" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="H8" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="J8" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6342,28 +6882,28 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="G9" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="H9" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="J9" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6377,25 +6917,25 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="G10" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="H10" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="I10" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="J10" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6409,22 +6949,22 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="F11" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="H11" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="J11" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6438,22 +6978,22 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="E12" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="F12" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="H12" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="I12" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="J12" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6464,25 +7004,25 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="F13" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="G13" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="H13" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="J13" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6490,31 +7030,31 @@
         <v>20330051920129</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="E14" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="F14" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="G14" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="H14" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="I14" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="J14" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6522,31 +7062,31 @@
         <v>20330051920131</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="E15" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="F15" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="G15" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="H15" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="I15" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="J15" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6557,16 +7097,25 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>573</v>
+      </c>
+      <c r="H16" t="s">
+        <v>618</v>
+      </c>
+      <c r="I16" t="s">
+        <v>650</v>
+      </c>
+      <c r="J16" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6577,28 +7126,25 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="F17" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="G17" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="H17" t="s">
-        <v>551</v>
-      </c>
-      <c r="I17" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="J17" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6609,25 +7155,25 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="F18" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="G18" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="H18" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="J18" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6635,19 +7181,28 @@
         <v>20330051920135</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="E19" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="F19" t="s">
-        <v>510</v>
+        <v>576</v>
+      </c>
+      <c r="H19" t="s">
+        <v>621</v>
+      </c>
+      <c r="I19" t="s">
+        <v>651</v>
+      </c>
+      <c r="J19" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6655,28 +7210,28 @@
         <v>20330051920136</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="F20" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="H20" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="I20" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="J20" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6684,31 +7239,31 @@
         <v>20330051920137</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="E21" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="F21" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="G21" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="H21" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="I21" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="J21" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6716,28 +7271,28 @@
         <v>20330051920139</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="D22" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="E22" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="F22" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="G22" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="H22" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="J22" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6745,31 +7300,31 @@
         <v>19330051920387</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="E23" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="F23" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="G23" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="H23" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="I23" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="J23" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6777,31 +7332,31 @@
         <v>20330051920140</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="F24" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="G24" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="H24" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="I24" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="J24" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6809,19 +7364,28 @@
         <v>20330051920141</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="E25" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="F25" t="s">
-        <v>516</v>
+        <v>582</v>
+      </c>
+      <c r="H25" t="s">
+        <v>627</v>
+      </c>
+      <c r="I25" t="s">
+        <v>656</v>
+      </c>
+      <c r="J25" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6829,31 +7393,31 @@
         <v>20330051920389</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C26" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="E26" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="F26" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="G26" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="H26" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="I26" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="J26" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6864,25 +7428,25 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="E27" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="F27" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="G27" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="H27" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="J27" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6896,25 +7460,25 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="F28" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="G28" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="H28" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="I28" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="J28" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6922,31 +7486,31 @@
         <v>20330051920144</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="F29" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="G29" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="H29" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="I29" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="J29" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6954,31 +7518,31 @@
         <v>20330051920387</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="C30" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="E30" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="F30" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="G30" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="H30" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="I30" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="J30" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6986,31 +7550,31 @@
         <v>20330051920145</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="E31" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="F31" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="H31" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="I31" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="J31" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7018,28 +7582,28 @@
         <v>20330051920148</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D32" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="E32" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="F32" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="H32" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="I32" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="J32" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7047,31 +7611,31 @@
         <v>20330051920150</v>
       </c>
       <c r="B33" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D33" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="F33" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="G33" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="H33" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="I33" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="J33" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7079,28 +7643,28 @@
         <v>20330051920151</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="E34" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="F34" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="G34" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="H34" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="J34" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7111,25 +7675,25 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="E35" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="F35" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="G35" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="H35" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="I35" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="J35" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7137,31 +7701,31 @@
         <v>20330051920154</v>
       </c>
       <c r="B36" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="E36" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="F36" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G36" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="H36" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="I36" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="J36" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -7223,31 +7787,31 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="F2" t="s">
-        <v>703</v>
+        <v>781</v>
       </c>
       <c r="G2" t="s">
-        <v>732</v>
+        <v>812</v>
       </c>
       <c r="H2" t="s">
-        <v>744</v>
+        <v>824</v>
       </c>
       <c r="I2" t="s">
-        <v>773</v>
+        <v>854</v>
       </c>
       <c r="J2" t="s">
-        <v>732</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7255,25 +7819,25 @@
         <v>20330051920191</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="E3" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="F3" t="s">
-        <v>704</v>
+        <v>782</v>
       </c>
       <c r="G3" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="H3" t="s">
-        <v>745</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7281,31 +7845,31 @@
         <v>20330051920192</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="E4" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
       <c r="F4" t="s">
-        <v>705</v>
+        <v>783</v>
       </c>
       <c r="G4" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
       <c r="H4" t="s">
-        <v>746</v>
+        <v>826</v>
       </c>
       <c r="I4" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="J4" t="s">
-        <v>792</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7313,31 +7877,31 @@
         <v>20330051920193</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="E5" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="F5" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="G5" t="s">
-        <v>735</v>
+        <v>815</v>
       </c>
       <c r="H5" t="s">
-        <v>747</v>
+        <v>827</v>
       </c>
       <c r="I5" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="J5" t="s">
-        <v>793</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7345,31 +7909,31 @@
         <v>20330051920392</v>
       </c>
       <c r="B6" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="E6" t="s">
-        <v>678</v>
+        <v>754</v>
       </c>
       <c r="F6" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="G6" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="H6" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="I6" t="s">
-        <v>775</v>
+        <v>856</v>
       </c>
       <c r="J6" t="s">
-        <v>794</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7377,31 +7941,31 @@
         <v>20330051920194</v>
       </c>
       <c r="B7" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="E7" t="s">
-        <v>679</v>
+        <v>755</v>
       </c>
       <c r="F7" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="G7" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="H7" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="I7" t="s">
-        <v>776</v>
+        <v>857</v>
       </c>
       <c r="J7" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7409,31 +7973,31 @@
         <v>20330051920196</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="C8" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="E8" t="s">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="F8" t="s">
-        <v>709</v>
+        <v>787</v>
       </c>
       <c r="G8" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
       <c r="H8" t="s">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="I8" t="s">
-        <v>777</v>
+        <v>858</v>
       </c>
       <c r="J8" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7441,31 +8005,31 @@
         <v>20330051920197</v>
       </c>
       <c r="B9" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="D9" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="E9" t="s">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="F9" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="G9" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
       <c r="H9" t="s">
-        <v>751</v>
+        <v>831</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>859</v>
       </c>
       <c r="J9" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7476,28 +8040,28 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="E10" t="s">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="F10" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="G10" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="H10" t="s">
-        <v>752</v>
+        <v>832</v>
       </c>
       <c r="I10" t="s">
-        <v>779</v>
+        <v>860</v>
       </c>
       <c r="J10" t="s">
-        <v>795</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7511,25 +8075,25 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="E11" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="F11" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="G11" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="H11" t="s">
-        <v>753</v>
+        <v>833</v>
       </c>
       <c r="I11" t="s">
-        <v>780</v>
+        <v>861</v>
       </c>
       <c r="J11" t="s">
-        <v>796</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7537,28 +8101,28 @@
         <v>20330051920200</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="D12" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="E12" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="F12" t="s">
-        <v>713</v>
+        <v>791</v>
       </c>
       <c r="H12" t="s">
-        <v>754</v>
+        <v>834</v>
       </c>
       <c r="I12" t="s">
-        <v>781</v>
+        <v>862</v>
       </c>
       <c r="J12" t="s">
-        <v>797</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7572,25 +8136,25 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="E13" t="s">
-        <v>685</v>
+        <v>761</v>
       </c>
       <c r="F13" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="G13" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="H13" t="s">
-        <v>755</v>
+        <v>835</v>
       </c>
       <c r="I13" t="s">
-        <v>782</v>
+        <v>863</v>
       </c>
       <c r="J13" t="s">
-        <v>798</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7601,22 +8165,22 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="D14" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="E14" t="s">
-        <v>686</v>
+        <v>762</v>
       </c>
       <c r="F14" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="H14" t="s">
-        <v>756</v>
+        <v>836</v>
       </c>
       <c r="J14" t="s">
-        <v>799</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7624,31 +8188,31 @@
         <v>20330051920202</v>
       </c>
       <c r="B15" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="E15" t="s">
-        <v>687</v>
+        <v>763</v>
       </c>
       <c r="F15" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="G15" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="H15" t="s">
-        <v>757</v>
+        <v>837</v>
       </c>
       <c r="I15" t="s">
-        <v>783</v>
+        <v>864</v>
       </c>
       <c r="J15" t="s">
-        <v>800</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7656,13 +8220,28 @@
         <v>20330051920203</v>
       </c>
       <c r="B16" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D16" t="s">
-        <v>657</v>
+        <v>733</v>
+      </c>
+      <c r="E16" t="s">
+        <v>764</v>
+      </c>
+      <c r="F16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H16" t="s">
+        <v>838</v>
+      </c>
+      <c r="I16" t="s">
+        <v>865</v>
+      </c>
+      <c r="J16" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7670,28 +8249,28 @@
         <v>20330051920204</v>
       </c>
       <c r="B17" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="C17" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="D17" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="E17" t="s">
-        <v>688</v>
+        <v>765</v>
       </c>
       <c r="F17" t="s">
-        <v>717</v>
+        <v>796</v>
       </c>
       <c r="H17" t="s">
-        <v>758</v>
+        <v>839</v>
       </c>
       <c r="I17" t="s">
-        <v>784</v>
+        <v>866</v>
       </c>
       <c r="J17" t="s">
-        <v>801</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7699,31 +8278,31 @@
         <v>20330051920205</v>
       </c>
       <c r="B18" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="C18" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="D18" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="E18" t="s">
-        <v>689</v>
+        <v>766</v>
       </c>
       <c r="F18" t="s">
-        <v>718</v>
+        <v>797</v>
       </c>
       <c r="G18" t="s">
-        <v>718</v>
+        <v>797</v>
       </c>
       <c r="H18" t="s">
-        <v>759</v>
+        <v>840</v>
       </c>
       <c r="I18" t="s">
-        <v>785</v>
+        <v>867</v>
       </c>
       <c r="J18" t="s">
-        <v>802</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7731,28 +8310,28 @@
         <v>20330051920206</v>
       </c>
       <c r="B19" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="E19" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="F19" t="s">
-        <v>719</v>
+        <v>798</v>
       </c>
       <c r="H19" t="s">
-        <v>760</v>
+        <v>841</v>
       </c>
       <c r="I19" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="J19" t="s">
-        <v>803</v>
+        <v>886</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7760,31 +8339,31 @@
         <v>20330051920207</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="D20" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="E20" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>799</v>
       </c>
       <c r="G20" t="s">
-        <v>720</v>
+        <v>799</v>
       </c>
       <c r="H20" t="s">
-        <v>761</v>
+        <v>842</v>
       </c>
       <c r="I20" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="J20" t="s">
-        <v>804</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7792,31 +8371,31 @@
         <v>20330051920208</v>
       </c>
       <c r="B21" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="E21" t="s">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="F21" t="s">
-        <v>721</v>
+        <v>800</v>
       </c>
       <c r="G21" t="s">
-        <v>721</v>
+        <v>800</v>
       </c>
       <c r="H21" t="s">
-        <v>762</v>
+        <v>843</v>
       </c>
       <c r="I21" t="s">
-        <v>786</v>
+        <v>868</v>
       </c>
       <c r="J21" t="s">
-        <v>805</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7824,31 +8403,31 @@
         <v>20330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="C22" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="D22" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="E22" t="s">
-        <v>693</v>
+        <v>770</v>
       </c>
       <c r="F22" t="s">
-        <v>722</v>
+        <v>801</v>
       </c>
       <c r="G22" t="s">
-        <v>722</v>
+        <v>801</v>
       </c>
       <c r="H22" t="s">
-        <v>763</v>
+        <v>844</v>
       </c>
       <c r="I22" t="s">
-        <v>693</v>
+        <v>770</v>
       </c>
       <c r="J22" t="s">
-        <v>806</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7856,28 +8435,28 @@
         <v>20330051920210</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="E23" t="s">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="F23" t="s">
-        <v>723</v>
+        <v>802</v>
       </c>
       <c r="G23" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
       <c r="H23" t="s">
-        <v>764</v>
+        <v>845</v>
       </c>
       <c r="I23" t="s">
-        <v>787</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7885,28 +8464,28 @@
         <v>20330051920211</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="C24" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="D24" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="E24" t="s">
-        <v>695</v>
+        <v>772</v>
       </c>
       <c r="F24" t="s">
-        <v>724</v>
+        <v>803</v>
       </c>
       <c r="G24" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="H24" t="s">
-        <v>765</v>
+        <v>846</v>
       </c>
       <c r="J24" t="s">
-        <v>807</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7920,25 +8499,25 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="E25" t="s">
-        <v>696</v>
+        <v>773</v>
       </c>
       <c r="F25" t="s">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="G25" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="H25" t="s">
-        <v>766</v>
+        <v>847</v>
       </c>
       <c r="I25" t="s">
-        <v>788</v>
+        <v>870</v>
       </c>
       <c r="J25" t="s">
-        <v>808</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7946,13 +8525,19 @@
         <v>20330051920213</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="D26" t="s">
-        <v>667</v>
+        <v>743</v>
+      </c>
+      <c r="E26" t="s">
+        <v>774</v>
+      </c>
+      <c r="F26" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7960,28 +8545,28 @@
         <v>20330051920214</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="E27" t="s">
-        <v>697</v>
+        <v>775</v>
       </c>
       <c r="F27" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
       <c r="G27" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
       <c r="H27" t="s">
-        <v>767</v>
+        <v>848</v>
       </c>
       <c r="J27" t="s">
-        <v>809</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7989,28 +8574,28 @@
         <v>20330051920215</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="E28" t="s">
-        <v>698</v>
+        <v>776</v>
       </c>
       <c r="F28" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
       <c r="G28" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
       <c r="H28" t="s">
-        <v>768</v>
+        <v>849</v>
       </c>
       <c r="J28" t="s">
-        <v>810</v>
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8018,25 +8603,25 @@
         <v>19330051920177</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="E29" t="s">
-        <v>699</v>
+        <v>777</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>808</v>
       </c>
       <c r="H29" t="s">
-        <v>769</v>
+        <v>850</v>
       </c>
       <c r="J29" t="s">
-        <v>811</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8044,31 +8629,31 @@
         <v>20330051920217</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="D30" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="E30" t="s">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="F30" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
       <c r="G30" t="s">
-        <v>742</v>
+        <v>822</v>
       </c>
       <c r="H30" t="s">
-        <v>770</v>
+        <v>851</v>
       </c>
       <c r="I30" t="s">
-        <v>789</v>
+        <v>871</v>
       </c>
       <c r="J30" t="s">
-        <v>812</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8076,28 +8661,28 @@
         <v>20330051920218</v>
       </c>
       <c r="B31" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="E31" t="s">
-        <v>701</v>
+        <v>779</v>
       </c>
       <c r="F31" t="s">
-        <v>730</v>
+        <v>810</v>
       </c>
       <c r="H31" t="s">
-        <v>771</v>
+        <v>852</v>
       </c>
       <c r="I31" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="J31" t="s">
-        <v>813</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8108,28 +8693,28 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="D32" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="E32" t="s">
-        <v>702</v>
+        <v>780</v>
       </c>
       <c r="F32" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="G32" t="s">
-        <v>743</v>
+        <v>823</v>
       </c>
       <c r="H32" t="s">
-        <v>772</v>
+        <v>853</v>
       </c>
       <c r="I32" t="s">
-        <v>791</v>
+        <v>873</v>
       </c>
       <c r="J32" t="s">
-        <v>814</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -8191,31 +8776,31 @@
         <v>20330051920260</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G2" t="s">
+        <v>814</v>
+      </c>
+      <c r="H2" t="s">
         <v>826</v>
       </c>
-      <c r="E2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F2" t="s">
-        <v>867</v>
-      </c>
-      <c r="G2" t="s">
-        <v>734</v>
-      </c>
-      <c r="H2" t="s">
-        <v>746</v>
-      </c>
       <c r="I2" t="s">
-        <v>774</v>
+        <v>855</v>
       </c>
       <c r="J2" t="s">
-        <v>792</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8223,28 +8808,31 @@
         <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>815</v>
+        <v>898</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>827</v>
+        <v>910</v>
       </c>
       <c r="E3" t="s">
-        <v>847</v>
+        <v>930</v>
       </c>
       <c r="F3" t="s">
-        <v>868</v>
+        <v>951</v>
       </c>
       <c r="G3" t="s">
-        <v>888</v>
+        <v>971</v>
       </c>
       <c r="H3" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1000</v>
       </c>
       <c r="J3" t="s">
-        <v>888</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8258,25 +8846,25 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>828</v>
+        <v>911</v>
       </c>
       <c r="E4" t="s">
-        <v>848</v>
+        <v>931</v>
       </c>
       <c r="F4" t="s">
-        <v>869</v>
+        <v>952</v>
       </c>
       <c r="G4" t="s">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="H4" t="s">
-        <v>898</v>
+        <v>981</v>
       </c>
       <c r="I4" t="s">
-        <v>917</v>
+        <v>1001</v>
       </c>
       <c r="J4" t="s">
-        <v>933</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8284,31 +8872,31 @@
         <v>20330051920262</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>829</v>
+        <v>912</v>
       </c>
       <c r="E5" t="s">
-        <v>849</v>
+        <v>932</v>
       </c>
       <c r="F5" t="s">
-        <v>870</v>
+        <v>953</v>
       </c>
       <c r="G5" t="s">
-        <v>890</v>
+        <v>973</v>
       </c>
       <c r="H5" t="s">
-        <v>899</v>
+        <v>982</v>
       </c>
       <c r="I5" t="s">
-        <v>918</v>
+        <v>1002</v>
       </c>
       <c r="J5" t="s">
-        <v>934</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8316,31 +8904,31 @@
         <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>816</v>
+        <v>899</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>830</v>
+        <v>913</v>
       </c>
       <c r="E6" t="s">
-        <v>850</v>
+        <v>933</v>
       </c>
       <c r="F6" t="s">
-        <v>871</v>
+        <v>954</v>
       </c>
       <c r="G6" t="s">
-        <v>871</v>
+        <v>954</v>
       </c>
       <c r="H6" t="s">
-        <v>900</v>
+        <v>983</v>
       </c>
       <c r="I6" t="s">
-        <v>919</v>
+        <v>1003</v>
       </c>
       <c r="J6" t="s">
-        <v>935</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8351,28 +8939,28 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>822</v>
+        <v>905</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
-        <v>851</v>
+        <v>934</v>
       </c>
       <c r="F7" t="s">
-        <v>872</v>
+        <v>955</v>
       </c>
       <c r="G7" t="s">
-        <v>872</v>
+        <v>955</v>
       </c>
       <c r="H7" t="s">
-        <v>901</v>
+        <v>984</v>
       </c>
       <c r="I7" t="s">
-        <v>920</v>
+        <v>1004</v>
       </c>
       <c r="J7" t="s">
-        <v>936</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8386,25 +8974,25 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>831</v>
+        <v>914</v>
       </c>
       <c r="E8" t="s">
-        <v>852</v>
+        <v>935</v>
       </c>
       <c r="F8" t="s">
-        <v>873</v>
+        <v>956</v>
       </c>
       <c r="G8" t="s">
-        <v>891</v>
+        <v>974</v>
       </c>
       <c r="H8" t="s">
-        <v>902</v>
+        <v>985</v>
       </c>
       <c r="I8" t="s">
-        <v>921</v>
+        <v>1005</v>
       </c>
       <c r="J8" t="s">
-        <v>937</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8412,28 +9000,28 @@
         <v>20330051920269</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>832</v>
+        <v>915</v>
       </c>
       <c r="E9" t="s">
-        <v>853</v>
+        <v>936</v>
       </c>
       <c r="F9" t="s">
-        <v>874</v>
+        <v>957</v>
       </c>
       <c r="H9" t="s">
-        <v>903</v>
+        <v>986</v>
       </c>
       <c r="I9" t="s">
-        <v>922</v>
+        <v>1006</v>
       </c>
       <c r="J9" t="s">
-        <v>938</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8444,28 +9032,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>823</v>
+        <v>906</v>
       </c>
       <c r="D10" t="s">
-        <v>833</v>
+        <v>916</v>
       </c>
       <c r="E10" t="s">
-        <v>854</v>
+        <v>937</v>
       </c>
       <c r="F10" t="s">
-        <v>875</v>
+        <v>958</v>
       </c>
       <c r="G10" t="s">
-        <v>892</v>
+        <v>975</v>
       </c>
       <c r="H10" t="s">
-        <v>904</v>
+        <v>987</v>
       </c>
       <c r="I10" t="s">
-        <v>923</v>
+        <v>1007</v>
       </c>
       <c r="J10" t="s">
-        <v>939</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8476,25 +9064,25 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>824</v>
+        <v>907</v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>917</v>
       </c>
       <c r="E11" t="s">
-        <v>855</v>
+        <v>938</v>
       </c>
       <c r="F11" t="s">
-        <v>876</v>
+        <v>959</v>
       </c>
       <c r="H11" t="s">
-        <v>905</v>
+        <v>988</v>
       </c>
       <c r="I11" t="s">
-        <v>924</v>
+        <v>1008</v>
       </c>
       <c r="J11" t="s">
-        <v>940</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8505,25 +9093,25 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
-        <v>835</v>
+        <v>918</v>
       </c>
       <c r="E12" t="s">
-        <v>856</v>
+        <v>939</v>
       </c>
       <c r="F12" t="s">
-        <v>877</v>
+        <v>960</v>
       </c>
       <c r="H12" t="s">
-        <v>906</v>
+        <v>989</v>
       </c>
       <c r="I12" t="s">
-        <v>925</v>
+        <v>1009</v>
       </c>
       <c r="J12" t="s">
-        <v>941</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8531,28 +9119,28 @@
         <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>817</v>
+        <v>900</v>
       </c>
       <c r="C13" t="s">
-        <v>825</v>
+        <v>908</v>
       </c>
       <c r="D13" t="s">
-        <v>836</v>
+        <v>919</v>
       </c>
       <c r="E13" t="s">
-        <v>857</v>
+        <v>940</v>
       </c>
       <c r="F13" t="s">
-        <v>878</v>
+        <v>961</v>
       </c>
       <c r="G13" t="s">
-        <v>893</v>
+        <v>976</v>
       </c>
       <c r="H13" t="s">
-        <v>907</v>
+        <v>990</v>
       </c>
       <c r="I13" t="s">
-        <v>926</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8566,25 +9154,25 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>837</v>
+        <v>920</v>
       </c>
       <c r="E14" t="s">
-        <v>858</v>
+        <v>941</v>
       </c>
       <c r="F14" t="s">
-        <v>879</v>
+        <v>962</v>
       </c>
       <c r="G14" t="s">
-        <v>894</v>
+        <v>977</v>
       </c>
       <c r="H14" t="s">
-        <v>908</v>
+        <v>991</v>
       </c>
       <c r="I14" t="s">
-        <v>927</v>
+        <v>1011</v>
       </c>
       <c r="J14" t="s">
-        <v>942</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8598,22 +9186,22 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>838</v>
+        <v>921</v>
       </c>
       <c r="E15" t="s">
-        <v>859</v>
+        <v>942</v>
       </c>
       <c r="F15" t="s">
-        <v>880</v>
+        <v>963</v>
       </c>
       <c r="H15" t="s">
-        <v>909</v>
+        <v>992</v>
       </c>
       <c r="I15" t="s">
-        <v>928</v>
+        <v>1012</v>
       </c>
       <c r="J15" t="s">
-        <v>943</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8621,31 +9209,31 @@
         <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="E16" t="s">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="F16" t="s">
-        <v>881</v>
+        <v>964</v>
       </c>
       <c r="G16" t="s">
-        <v>895</v>
+        <v>978</v>
       </c>
       <c r="H16" t="s">
-        <v>910</v>
+        <v>993</v>
       </c>
       <c r="I16" t="s">
-        <v>929</v>
+        <v>1013</v>
       </c>
       <c r="J16" t="s">
-        <v>944</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8653,28 +9241,28 @@
         <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>818</v>
+        <v>901</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>840</v>
+        <v>923</v>
       </c>
       <c r="E17" t="s">
-        <v>861</v>
+        <v>944</v>
       </c>
       <c r="F17" t="s">
-        <v>882</v>
+        <v>965</v>
       </c>
       <c r="H17" t="s">
-        <v>911</v>
+        <v>994</v>
       </c>
       <c r="I17" t="s">
-        <v>861</v>
+        <v>944</v>
       </c>
       <c r="J17" t="s">
-        <v>945</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8688,25 +9276,25 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>841</v>
+        <v>924</v>
       </c>
       <c r="E18" t="s">
-        <v>862</v>
+        <v>945</v>
       </c>
       <c r="F18" t="s">
-        <v>883</v>
+        <v>966</v>
       </c>
       <c r="G18" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
       <c r="H18" t="s">
-        <v>912</v>
+        <v>995</v>
       </c>
       <c r="I18" t="s">
-        <v>930</v>
+        <v>1014</v>
       </c>
       <c r="J18" t="s">
-        <v>946</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8714,31 +9302,31 @@
         <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>842</v>
+        <v>925</v>
       </c>
       <c r="E19" t="s">
-        <v>863</v>
+        <v>946</v>
       </c>
       <c r="F19" t="s">
-        <v>884</v>
+        <v>967</v>
       </c>
       <c r="G19" t="s">
-        <v>896</v>
+        <v>979</v>
       </c>
       <c r="H19" t="s">
-        <v>913</v>
+        <v>996</v>
       </c>
       <c r="I19" t="s">
-        <v>931</v>
+        <v>1015</v>
       </c>
       <c r="J19" t="s">
-        <v>947</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8746,28 +9334,31 @@
         <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>819</v>
+        <v>902</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>843</v>
+        <v>926</v>
       </c>
       <c r="E20" t="s">
-        <v>864</v>
+        <v>947</v>
       </c>
       <c r="F20" t="s">
-        <v>885</v>
+        <v>968</v>
       </c>
       <c r="G20" t="s">
-        <v>885</v>
+        <v>968</v>
       </c>
       <c r="H20" t="s">
-        <v>914</v>
+        <v>997</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1016</v>
       </c>
       <c r="J20" t="s">
-        <v>948</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8775,28 +9366,28 @@
         <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>820</v>
+        <v>903</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>844</v>
+        <v>927</v>
       </c>
       <c r="E21" t="s">
-        <v>865</v>
+        <v>948</v>
       </c>
       <c r="F21" t="s">
-        <v>886</v>
+        <v>969</v>
       </c>
       <c r="H21" t="s">
-        <v>915</v>
+        <v>998</v>
       </c>
       <c r="I21" t="s">
-        <v>932</v>
+        <v>1017</v>
       </c>
       <c r="J21" t="s">
-        <v>949</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8804,25 +9395,25 @@
         <v>19330051920425</v>
       </c>
       <c r="B22" t="s">
-        <v>821</v>
+        <v>904</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>845</v>
+        <v>928</v>
       </c>
       <c r="E22" t="s">
-        <v>866</v>
+        <v>949</v>
       </c>
       <c r="F22" t="s">
-        <v>887</v>
+        <v>970</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="H22" t="s">
-        <v>916</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -8884,25 +9475,25 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>1035</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="D2" t="s">
-        <v>969</v>
+        <v>1054</v>
       </c>
       <c r="E2" t="s">
-        <v>991</v>
+        <v>1076</v>
       </c>
       <c r="H2" t="s">
-        <v>1043</v>
+        <v>1128</v>
       </c>
       <c r="I2" t="s">
-        <v>1065</v>
+        <v>1150</v>
       </c>
       <c r="J2" t="s">
-        <v>1082</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8910,31 +9501,31 @@
         <v>20330051920318</v>
       </c>
       <c r="B3" t="s">
-        <v>951</v>
+        <v>1036</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>970</v>
+        <v>1055</v>
       </c>
       <c r="E3" t="s">
-        <v>992</v>
+        <v>1077</v>
       </c>
       <c r="F3" t="s">
-        <v>1013</v>
+        <v>1098</v>
       </c>
       <c r="G3" t="s">
-        <v>1034</v>
+        <v>1119</v>
       </c>
       <c r="H3" t="s">
-        <v>1044</v>
+        <v>1129</v>
       </c>
       <c r="I3" t="s">
-        <v>1066</v>
+        <v>1151</v>
       </c>
       <c r="J3" t="s">
-        <v>1083</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8942,28 +9533,28 @@
         <v>20330050470026</v>
       </c>
       <c r="B4" t="s">
-        <v>952</v>
+        <v>1037</v>
       </c>
       <c r="C4" t="s">
-        <v>962</v>
+        <v>1047</v>
       </c>
       <c r="D4" t="s">
-        <v>971</v>
+        <v>1056</v>
       </c>
       <c r="E4" t="s">
-        <v>993</v>
+        <v>1078</v>
       </c>
       <c r="F4" t="s">
-        <v>1014</v>
+        <v>1099</v>
       </c>
       <c r="H4" t="s">
-        <v>1045</v>
+        <v>1130</v>
       </c>
       <c r="I4" t="s">
-        <v>1067</v>
+        <v>1152</v>
       </c>
       <c r="J4" t="s">
-        <v>1084</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8971,28 +9562,28 @@
         <v>20330051920320</v>
       </c>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>1038</v>
       </c>
       <c r="C5" t="s">
-        <v>963</v>
+        <v>1048</v>
       </c>
       <c r="D5" t="s">
-        <v>972</v>
+        <v>1057</v>
       </c>
       <c r="E5" t="s">
-        <v>994</v>
+        <v>1079</v>
       </c>
       <c r="F5" t="s">
-        <v>1015</v>
+        <v>1100</v>
       </c>
       <c r="H5" t="s">
-        <v>1046</v>
+        <v>1131</v>
       </c>
       <c r="I5" t="s">
-        <v>1068</v>
+        <v>1153</v>
       </c>
       <c r="J5" t="s">
-        <v>1085</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9000,25 +9591,25 @@
         <v>20330051920321</v>
       </c>
       <c r="B6" t="s">
-        <v>954</v>
+        <v>1039</v>
       </c>
       <c r="C6" t="s">
-        <v>964</v>
+        <v>1049</v>
       </c>
       <c r="D6" t="s">
-        <v>973</v>
+        <v>1058</v>
       </c>
       <c r="E6" t="s">
-        <v>995</v>
+        <v>1080</v>
       </c>
       <c r="F6" t="s">
-        <v>1016</v>
+        <v>1101</v>
       </c>
       <c r="G6" t="s">
-        <v>1016</v>
+        <v>1101</v>
       </c>
       <c r="H6" t="s">
-        <v>1047</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9032,25 +9623,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>974</v>
+        <v>1059</v>
       </c>
       <c r="E7" t="s">
-        <v>996</v>
+        <v>1081</v>
       </c>
       <c r="F7" t="s">
-        <v>1017</v>
+        <v>1102</v>
       </c>
       <c r="G7" t="s">
-        <v>1035</v>
+        <v>1120</v>
       </c>
       <c r="H7" t="s">
-        <v>1048</v>
+        <v>1133</v>
       </c>
       <c r="I7" t="s">
-        <v>1069</v>
+        <v>1154</v>
       </c>
       <c r="J7" t="s">
-        <v>1086</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9061,28 +9652,28 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>975</v>
+        <v>1060</v>
       </c>
       <c r="E8" t="s">
-        <v>997</v>
+        <v>1082</v>
       </c>
       <c r="F8" t="s">
-        <v>1018</v>
+        <v>1103</v>
       </c>
       <c r="G8" t="s">
-        <v>1036</v>
+        <v>1121</v>
       </c>
       <c r="H8" t="s">
-        <v>1049</v>
+        <v>1134</v>
       </c>
       <c r="I8" t="s">
-        <v>1070</v>
+        <v>1155</v>
       </c>
       <c r="J8" t="s">
-        <v>1087</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9090,28 +9681,28 @@
         <v>20330051920380</v>
       </c>
       <c r="B9" t="s">
-        <v>955</v>
+        <v>1040</v>
       </c>
       <c r="C9" t="s">
-        <v>965</v>
+        <v>1050</v>
       </c>
       <c r="D9" t="s">
-        <v>976</v>
+        <v>1061</v>
       </c>
       <c r="E9" t="s">
-        <v>998</v>
+        <v>1083</v>
       </c>
       <c r="F9" t="s">
-        <v>1019</v>
+        <v>1104</v>
       </c>
       <c r="H9" t="s">
-        <v>1050</v>
+        <v>1135</v>
       </c>
       <c r="I9" t="s">
-        <v>1071</v>
+        <v>1156</v>
       </c>
       <c r="J9" t="s">
-        <v>1088</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9125,25 +9716,25 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>977</v>
+        <v>1062</v>
       </c>
       <c r="E10" t="s">
-        <v>999</v>
+        <v>1084</v>
       </c>
       <c r="F10" t="s">
-        <v>1020</v>
+        <v>1105</v>
       </c>
       <c r="G10" t="s">
-        <v>1037</v>
+        <v>1122</v>
       </c>
       <c r="H10" t="s">
-        <v>1051</v>
+        <v>1136</v>
       </c>
       <c r="I10" t="s">
-        <v>1072</v>
+        <v>1157</v>
       </c>
       <c r="J10" t="s">
-        <v>1089</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9154,28 +9745,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>966</v>
+        <v>1051</v>
       </c>
       <c r="D11" t="s">
-        <v>978</v>
+        <v>1063</v>
       </c>
       <c r="E11" t="s">
-        <v>1000</v>
+        <v>1085</v>
       </c>
       <c r="F11" t="s">
-        <v>1021</v>
+        <v>1106</v>
       </c>
       <c r="G11" t="s">
-        <v>1038</v>
+        <v>1123</v>
       </c>
       <c r="H11" t="s">
-        <v>1052</v>
+        <v>1137</v>
       </c>
       <c r="I11" t="s">
-        <v>1073</v>
+        <v>1158</v>
       </c>
       <c r="J11" t="s">
-        <v>1090</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9183,31 +9774,31 @@
         <v>20330051920397</v>
       </c>
       <c r="B12" t="s">
-        <v>956</v>
+        <v>1041</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>979</v>
+        <v>1064</v>
       </c>
       <c r="E12" t="s">
-        <v>1001</v>
+        <v>1086</v>
       </c>
       <c r="F12" t="s">
-        <v>1022</v>
+        <v>1107</v>
       </c>
       <c r="G12" t="s">
-        <v>1039</v>
+        <v>1124</v>
       </c>
       <c r="H12" t="s">
-        <v>1053</v>
+        <v>1138</v>
       </c>
       <c r="I12" t="s">
-        <v>1001</v>
+        <v>1086</v>
       </c>
       <c r="J12" t="s">
-        <v>1091</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9218,25 +9809,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>980</v>
+        <v>1065</v>
       </c>
       <c r="E13" t="s">
-        <v>1002</v>
+        <v>1087</v>
       </c>
       <c r="F13" t="s">
-        <v>1023</v>
+        <v>1108</v>
       </c>
       <c r="H13" t="s">
-        <v>1054</v>
+        <v>1139</v>
       </c>
       <c r="I13" t="s">
-        <v>1074</v>
+        <v>1159</v>
       </c>
       <c r="J13" t="s">
-        <v>1092</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9244,28 +9835,28 @@
         <v>20330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>957</v>
+        <v>1042</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>981</v>
+        <v>1066</v>
       </c>
       <c r="E14" t="s">
-        <v>1003</v>
+        <v>1088</v>
       </c>
       <c r="F14" t="s">
-        <v>1024</v>
+        <v>1109</v>
       </c>
       <c r="H14" t="s">
-        <v>1055</v>
+        <v>1140</v>
       </c>
       <c r="I14" t="s">
-        <v>1075</v>
+        <v>1160</v>
       </c>
       <c r="J14" t="s">
-        <v>1093</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9273,31 +9864,31 @@
         <v>20330051920328</v>
       </c>
       <c r="B15" t="s">
-        <v>958</v>
+        <v>1043</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>982</v>
+        <v>1067</v>
       </c>
       <c r="E15" t="s">
-        <v>1004</v>
+        <v>1089</v>
       </c>
       <c r="F15" t="s">
-        <v>1025</v>
+        <v>1110</v>
       </c>
       <c r="G15" t="s">
-        <v>1025</v>
+        <v>1110</v>
       </c>
       <c r="H15" t="s">
-        <v>1056</v>
+        <v>1141</v>
       </c>
       <c r="I15" t="s">
-        <v>1076</v>
+        <v>1161</v>
       </c>
       <c r="J15" t="s">
-        <v>1094</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9305,31 +9896,31 @@
         <v>20330051920396</v>
       </c>
       <c r="B16" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>983</v>
+        <v>1068</v>
       </c>
       <c r="E16" t="s">
-        <v>1005</v>
+        <v>1090</v>
       </c>
       <c r="F16" t="s">
-        <v>1026</v>
+        <v>1111</v>
       </c>
       <c r="G16" t="s">
-        <v>1026</v>
+        <v>1111</v>
       </c>
       <c r="H16" t="s">
-        <v>1057</v>
+        <v>1142</v>
       </c>
       <c r="I16" t="s">
-        <v>1077</v>
+        <v>1162</v>
       </c>
       <c r="J16" t="s">
-        <v>1095</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9337,31 +9928,31 @@
         <v>20330051920329</v>
       </c>
       <c r="B17" t="s">
-        <v>959</v>
+        <v>1044</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>984</v>
+        <v>1069</v>
       </c>
       <c r="E17" t="s">
-        <v>1006</v>
+        <v>1091</v>
       </c>
       <c r="F17" t="s">
-        <v>1027</v>
+        <v>1112</v>
       </c>
       <c r="G17" t="s">
-        <v>1040</v>
+        <v>1125</v>
       </c>
       <c r="H17" t="s">
-        <v>1058</v>
+        <v>1143</v>
       </c>
       <c r="I17" t="s">
-        <v>1078</v>
+        <v>1163</v>
       </c>
       <c r="J17" t="s">
-        <v>1096</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9369,28 +9960,28 @@
         <v>20330051920330</v>
       </c>
       <c r="B18" t="s">
-        <v>960</v>
+        <v>1045</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>985</v>
+        <v>1070</v>
       </c>
       <c r="E18" t="s">
-        <v>1007</v>
+        <v>1092</v>
       </c>
       <c r="F18" t="s">
-        <v>1028</v>
+        <v>1113</v>
       </c>
       <c r="G18" t="s">
-        <v>1041</v>
+        <v>1126</v>
       </c>
       <c r="H18" t="s">
-        <v>1059</v>
+        <v>1144</v>
       </c>
       <c r="J18" t="s">
-        <v>1097</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9401,22 +9992,25 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>967</v>
+        <v>1052</v>
       </c>
       <c r="D19" t="s">
-        <v>986</v>
+        <v>1071</v>
       </c>
       <c r="E19" t="s">
-        <v>1008</v>
+        <v>1093</v>
       </c>
       <c r="F19" t="s">
-        <v>1029</v>
+        <v>1114</v>
       </c>
       <c r="H19" t="s">
-        <v>1060</v>
+        <v>1145</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1164</v>
       </c>
       <c r="J19" t="s">
-        <v>1098</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9424,31 +10018,31 @@
         <v>20330051920331</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>987</v>
+        <v>1072</v>
       </c>
       <c r="E20" t="s">
-        <v>1009</v>
+        <v>1094</v>
       </c>
       <c r="F20" t="s">
-        <v>1030</v>
+        <v>1115</v>
       </c>
       <c r="G20" t="s">
-        <v>1042</v>
+        <v>1127</v>
       </c>
       <c r="H20" t="s">
-        <v>1061</v>
+        <v>1146</v>
       </c>
       <c r="I20" t="s">
-        <v>1079</v>
+        <v>1165</v>
       </c>
       <c r="J20" t="s">
-        <v>1099</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9456,31 +10050,31 @@
         <v>20330051920333</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="D21" t="s">
-        <v>988</v>
+        <v>1073</v>
       </c>
       <c r="E21" t="s">
-        <v>1010</v>
+        <v>1095</v>
       </c>
       <c r="F21" t="s">
-        <v>1031</v>
+        <v>1116</v>
       </c>
       <c r="G21" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
       <c r="H21" t="s">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="I21" t="s">
-        <v>1080</v>
+        <v>1166</v>
       </c>
       <c r="J21" t="s">
-        <v>1100</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9488,31 +10082,31 @@
         <v>20330051920334</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
-        <v>964</v>
+        <v>1049</v>
       </c>
       <c r="D22" t="s">
-        <v>989</v>
+        <v>1074</v>
       </c>
       <c r="E22" t="s">
-        <v>1011</v>
+        <v>1096</v>
       </c>
       <c r="F22" t="s">
-        <v>1032</v>
+        <v>1117</v>
       </c>
       <c r="G22" t="s">
-        <v>1032</v>
+        <v>1117</v>
       </c>
       <c r="H22" t="s">
-        <v>1063</v>
+        <v>1148</v>
       </c>
       <c r="I22" t="s">
-        <v>1011</v>
+        <v>1096</v>
       </c>
       <c r="J22" t="s">
-        <v>1101</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9520,28 +10114,28 @@
         <v>20330051920335</v>
       </c>
       <c r="B23" t="s">
-        <v>961</v>
+        <v>1046</v>
       </c>
       <c r="C23" t="s">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="D23" t="s">
-        <v>990</v>
+        <v>1075</v>
       </c>
       <c r="E23" t="s">
-        <v>1012</v>
+        <v>1097</v>
       </c>
       <c r="F23" t="s">
-        <v>1033</v>
+        <v>1118</v>
       </c>
       <c r="H23" t="s">
-        <v>1064</v>
+        <v>1149</v>
       </c>
       <c r="I23" t="s">
-        <v>1081</v>
+        <v>1167</v>
       </c>
       <c r="J23" t="s">
-        <v>1102</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -9603,31 +10197,31 @@
         <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
-        <v>1103</v>
+        <v>1189</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>1127</v>
+        <v>1213</v>
       </c>
       <c r="E2" t="s">
-        <v>1158</v>
+        <v>1244</v>
       </c>
       <c r="F2" t="s">
-        <v>1191</v>
+        <v>1278</v>
       </c>
       <c r="G2" t="s">
-        <v>1224</v>
+        <v>1312</v>
       </c>
       <c r="H2" t="s">
-        <v>1238</v>
+        <v>1326</v>
       </c>
       <c r="I2" t="s">
-        <v>1267</v>
+        <v>1358</v>
       </c>
       <c r="J2" t="s">
-        <v>1287</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9635,31 +10229,31 @@
         <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>1104</v>
+        <v>1190</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>1128</v>
+        <v>1214</v>
       </c>
       <c r="E3" t="s">
-        <v>1159</v>
+        <v>1245</v>
       </c>
       <c r="F3" t="s">
-        <v>1192</v>
+        <v>1279</v>
       </c>
       <c r="G3" t="s">
-        <v>1225</v>
+        <v>1313</v>
       </c>
       <c r="H3" t="s">
-        <v>1239</v>
+        <v>1327</v>
       </c>
       <c r="I3" t="s">
-        <v>1268</v>
+        <v>1359</v>
       </c>
       <c r="J3" t="s">
-        <v>1288</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9667,28 +10261,28 @@
         <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>1105</v>
+        <v>1191</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>1129</v>
+        <v>1215</v>
       </c>
       <c r="E4" t="s">
-        <v>1160</v>
+        <v>1246</v>
       </c>
       <c r="F4" t="s">
-        <v>1193</v>
+        <v>1280</v>
       </c>
       <c r="G4" t="s">
-        <v>1193</v>
+        <v>1280</v>
       </c>
       <c r="H4" t="s">
-        <v>1240</v>
+        <v>1328</v>
       </c>
       <c r="I4" t="s">
-        <v>1269</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9696,31 +10290,31 @@
         <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>1130</v>
+        <v>1216</v>
       </c>
       <c r="E5" t="s">
-        <v>1161</v>
+        <v>1247</v>
       </c>
       <c r="F5" t="s">
-        <v>1194</v>
+        <v>1281</v>
       </c>
       <c r="G5" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="H5" t="s">
-        <v>745</v>
+        <v>825</v>
       </c>
       <c r="I5" t="s">
-        <v>1270</v>
+        <v>1361</v>
       </c>
       <c r="J5" t="s">
-        <v>704</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9728,25 +10322,25 @@
         <v>19330051920271</v>
       </c>
       <c r="B6" t="s">
-        <v>1106</v>
+        <v>1192</v>
       </c>
       <c r="C6" t="s">
-        <v>1115</v>
+        <v>1201</v>
       </c>
       <c r="D6" t="s">
-        <v>1131</v>
+        <v>1217</v>
       </c>
       <c r="E6" t="s">
-        <v>1162</v>
+        <v>1248</v>
       </c>
       <c r="F6" t="s">
-        <v>1195</v>
+        <v>1282</v>
       </c>
       <c r="G6" t="s">
-        <v>1226</v>
+        <v>1314</v>
       </c>
       <c r="H6" t="s">
-        <v>1241</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9754,28 +10348,28 @@
         <v>19330051920268</v>
       </c>
       <c r="B7" t="s">
-        <v>951</v>
+        <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="D7" t="s">
-        <v>1132</v>
+        <v>1218</v>
       </c>
       <c r="E7" t="s">
-        <v>1163</v>
+        <v>1249</v>
       </c>
       <c r="F7" t="s">
-        <v>1196</v>
+        <v>1283</v>
       </c>
       <c r="G7" t="s">
-        <v>1227</v>
+        <v>1315</v>
       </c>
       <c r="H7" t="s">
-        <v>1242</v>
+        <v>1330</v>
       </c>
       <c r="J7" t="s">
-        <v>1289</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9783,28 +10377,28 @@
         <v>19330051920274</v>
       </c>
       <c r="B8" t="s">
-        <v>1107</v>
+        <v>1193</v>
       </c>
       <c r="C8" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="D8" t="s">
-        <v>1133</v>
+        <v>1219</v>
       </c>
       <c r="E8" t="s">
-        <v>1164</v>
+        <v>1250</v>
       </c>
       <c r="F8" t="s">
-        <v>1197</v>
+        <v>1284</v>
       </c>
       <c r="H8" t="s">
-        <v>1243</v>
+        <v>1331</v>
       </c>
       <c r="I8" t="s">
-        <v>1271</v>
+        <v>1362</v>
       </c>
       <c r="J8" t="s">
-        <v>1290</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9812,31 +10406,31 @@
         <v>18330051920242</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>1134</v>
+        <v>1220</v>
       </c>
       <c r="E9" t="s">
-        <v>1165</v>
+        <v>1251</v>
       </c>
       <c r="F9" t="s">
-        <v>1198</v>
+        <v>1285</v>
       </c>
       <c r="G9" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="H9" t="s">
-        <v>1244</v>
+        <v>1332</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="J9" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9844,19 +10438,28 @@
         <v>18330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>1108</v>
+        <v>1194</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>1135</v>
+        <v>1221</v>
       </c>
       <c r="E10" t="s">
-        <v>1166</v>
+        <v>1252</v>
       </c>
       <c r="F10" t="s">
-        <v>1199</v>
+        <v>1286</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9867,28 +10470,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>1117</v>
+        <v>1203</v>
       </c>
       <c r="D11" t="s">
-        <v>1136</v>
+        <v>1222</v>
       </c>
       <c r="E11" t="s">
-        <v>1167</v>
+        <v>1253</v>
       </c>
       <c r="F11" t="s">
-        <v>1200</v>
+        <v>1287</v>
       </c>
       <c r="G11" t="s">
-        <v>1200</v>
+        <v>1287</v>
       </c>
       <c r="H11" t="s">
-        <v>1245</v>
+        <v>1334</v>
       </c>
       <c r="I11" t="s">
-        <v>1167</v>
+        <v>1253</v>
       </c>
       <c r="J11" t="s">
-        <v>1291</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9899,25 +10502,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="D12" t="s">
-        <v>1137</v>
+        <v>1223</v>
       </c>
       <c r="E12" t="s">
-        <v>1168</v>
+        <v>1254</v>
       </c>
       <c r="F12" t="s">
-        <v>1201</v>
+        <v>1288</v>
       </c>
       <c r="H12" t="s">
-        <v>1246</v>
+        <v>1335</v>
       </c>
       <c r="I12" t="s">
-        <v>1272</v>
+        <v>1364</v>
       </c>
       <c r="J12" t="s">
-        <v>1292</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9928,28 +10531,28 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>1138</v>
+        <v>1224</v>
       </c>
       <c r="E13" t="s">
-        <v>1169</v>
+        <v>1255</v>
       </c>
       <c r="F13" t="s">
-        <v>1202</v>
+        <v>1289</v>
       </c>
       <c r="G13" t="s">
-        <v>1228</v>
+        <v>1316</v>
       </c>
       <c r="H13" t="s">
-        <v>1247</v>
+        <v>1336</v>
       </c>
       <c r="I13" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="J13" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9960,28 +10563,28 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>1139</v>
+        <v>1225</v>
       </c>
       <c r="E14" t="s">
-        <v>1170</v>
+        <v>1256</v>
       </c>
       <c r="F14" t="s">
-        <v>1203</v>
+        <v>1290</v>
       </c>
       <c r="G14" t="s">
-        <v>1229</v>
+        <v>1317</v>
       </c>
       <c r="H14" t="s">
-        <v>1248</v>
+        <v>1337</v>
       </c>
       <c r="I14" t="s">
-        <v>1273</v>
+        <v>1365</v>
       </c>
       <c r="J14" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9992,28 +10595,28 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="D15" t="s">
-        <v>1140</v>
+        <v>1226</v>
       </c>
       <c r="E15" t="s">
-        <v>1171</v>
+        <v>1257</v>
       </c>
       <c r="F15" t="s">
-        <v>1204</v>
+        <v>1291</v>
       </c>
       <c r="G15" t="s">
-        <v>1204</v>
+        <v>1291</v>
       </c>
       <c r="H15" t="s">
-        <v>1249</v>
+        <v>1338</v>
       </c>
       <c r="I15" t="s">
-        <v>1274</v>
+        <v>1366</v>
       </c>
       <c r="J15" t="s">
-        <v>1294</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10021,31 +10624,31 @@
         <v>19330051920447</v>
       </c>
       <c r="B16" t="s">
-        <v>1109</v>
+        <v>1195</v>
       </c>
       <c r="C16" t="s">
-        <v>967</v>
+        <v>1052</v>
       </c>
       <c r="D16" t="s">
-        <v>1141</v>
+        <v>1227</v>
       </c>
       <c r="E16" t="s">
-        <v>1172</v>
+        <v>1258</v>
       </c>
       <c r="F16" t="s">
-        <v>1205</v>
+        <v>1292</v>
       </c>
       <c r="G16" t="s">
-        <v>1230</v>
+        <v>1318</v>
       </c>
       <c r="H16" t="s">
-        <v>1250</v>
+        <v>1339</v>
       </c>
       <c r="I16" t="s">
-        <v>1275</v>
+        <v>1367</v>
       </c>
       <c r="J16" t="s">
-        <v>1295</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10056,28 +10659,28 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="D17" t="s">
-        <v>1142</v>
+        <v>1228</v>
       </c>
       <c r="E17" t="s">
-        <v>1173</v>
+        <v>1259</v>
       </c>
       <c r="F17" t="s">
-        <v>1206</v>
+        <v>1293</v>
       </c>
       <c r="G17" t="s">
-        <v>1206</v>
+        <v>1293</v>
       </c>
       <c r="H17" t="s">
-        <v>1251</v>
+        <v>1340</v>
       </c>
       <c r="I17" t="s">
-        <v>1276</v>
+        <v>1368</v>
       </c>
       <c r="J17" t="s">
-        <v>1296</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10085,28 +10688,28 @@
         <v>19330051920286</v>
       </c>
       <c r="B18" t="s">
-        <v>1110</v>
+        <v>1196</v>
       </c>
       <c r="C18" t="s">
-        <v>822</v>
+        <v>905</v>
       </c>
       <c r="D18" t="s">
-        <v>1143</v>
+        <v>1229</v>
       </c>
       <c r="E18" t="s">
-        <v>1174</v>
+        <v>1260</v>
       </c>
       <c r="F18" t="s">
-        <v>1207</v>
+        <v>1294</v>
       </c>
       <c r="G18" t="s">
-        <v>1231</v>
+        <v>1319</v>
       </c>
       <c r="H18" t="s">
-        <v>1252</v>
+        <v>1341</v>
       </c>
       <c r="J18" t="s">
-        <v>1297</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10117,16 +10720,25 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="D19" t="s">
-        <v>1144</v>
+        <v>1230</v>
       </c>
       <c r="E19" t="s">
-        <v>1175</v>
+        <v>1261</v>
       </c>
       <c r="F19" t="s">
-        <v>1208</v>
+        <v>1295</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10134,28 +10746,28 @@
         <v>19330051920287</v>
       </c>
       <c r="B20" t="s">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="C20" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="D20" t="s">
-        <v>1145</v>
+        <v>1231</v>
       </c>
       <c r="E20" t="s">
-        <v>1176</v>
+        <v>1262</v>
       </c>
       <c r="F20" t="s">
-        <v>1209</v>
+        <v>1296</v>
       </c>
       <c r="H20" t="s">
-        <v>1253</v>
+        <v>1343</v>
       </c>
       <c r="I20" t="s">
-        <v>1277</v>
+        <v>1370</v>
       </c>
       <c r="J20" t="s">
-        <v>1298</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10163,31 +10775,31 @@
         <v>19330051920289</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D21" t="s">
-        <v>1146</v>
+        <v>1232</v>
       </c>
       <c r="E21" t="s">
-        <v>1177</v>
+        <v>1263</v>
       </c>
       <c r="F21" t="s">
-        <v>1210</v>
+        <v>1297</v>
       </c>
       <c r="G21" t="s">
-        <v>1210</v>
+        <v>1297</v>
       </c>
       <c r="H21" t="s">
-        <v>1254</v>
+        <v>1344</v>
       </c>
       <c r="I21" t="s">
-        <v>1278</v>
+        <v>1371</v>
       </c>
       <c r="J21" t="s">
-        <v>1299</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10201,25 +10813,25 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>1147</v>
+        <v>1233</v>
       </c>
       <c r="E22" t="s">
-        <v>1178</v>
+        <v>1264</v>
       </c>
       <c r="F22" t="s">
-        <v>1211</v>
+        <v>1298</v>
       </c>
       <c r="G22" t="s">
-        <v>1232</v>
+        <v>1320</v>
       </c>
       <c r="H22" t="s">
-        <v>1255</v>
+        <v>1345</v>
       </c>
       <c r="I22" t="s">
-        <v>1178</v>
+        <v>1264</v>
       </c>
       <c r="J22" t="s">
-        <v>1300</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10233,22 +10845,22 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="E23" t="s">
-        <v>1179</v>
+        <v>1265</v>
       </c>
       <c r="F23" t="s">
-        <v>1212</v>
+        <v>1299</v>
       </c>
       <c r="G23" t="s">
-        <v>1212</v>
+        <v>1299</v>
       </c>
       <c r="H23" t="s">
-        <v>1256</v>
+        <v>1346</v>
       </c>
       <c r="J23" t="s">
-        <v>1301</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10259,28 +10871,28 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>1148</v>
+        <v>1234</v>
       </c>
       <c r="E24" t="s">
-        <v>1180</v>
+        <v>1266</v>
       </c>
       <c r="F24" t="s">
-        <v>1213</v>
+        <v>1300</v>
       </c>
       <c r="G24" t="s">
-        <v>1233</v>
+        <v>1321</v>
       </c>
       <c r="H24" t="s">
-        <v>1257</v>
+        <v>1347</v>
       </c>
       <c r="I24" t="s">
-        <v>1180</v>
+        <v>1266</v>
       </c>
       <c r="J24" t="s">
-        <v>1213</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10288,28 +10900,28 @@
         <v>19330051920294</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="C25" t="s">
-        <v>1104</v>
+        <v>1190</v>
       </c>
       <c r="D25" t="s">
-        <v>1149</v>
+        <v>1235</v>
       </c>
       <c r="E25" t="s">
-        <v>1181</v>
+        <v>1267</v>
       </c>
       <c r="F25" t="s">
-        <v>1214</v>
+        <v>1301</v>
       </c>
       <c r="H25" t="s">
-        <v>1258</v>
+        <v>1348</v>
       </c>
       <c r="I25" t="s">
-        <v>1279</v>
+        <v>1372</v>
       </c>
       <c r="J25" t="s">
-        <v>1302</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10317,31 +10929,31 @@
         <v>19330051920296</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
-        <v>1121</v>
+        <v>1207</v>
       </c>
       <c r="D26" t="s">
-        <v>1150</v>
+        <v>1236</v>
       </c>
       <c r="E26" t="s">
-        <v>1182</v>
+        <v>1268</v>
       </c>
       <c r="F26" t="s">
-        <v>1215</v>
+        <v>1302</v>
       </c>
       <c r="G26" t="s">
-        <v>1215</v>
+        <v>1302</v>
       </c>
       <c r="H26" t="s">
-        <v>1259</v>
+        <v>1349</v>
       </c>
       <c r="I26" t="s">
-        <v>1182</v>
+        <v>1268</v>
       </c>
       <c r="J26" t="s">
-        <v>1303</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10349,31 +10961,31 @@
         <v>19330051920295</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>1122</v>
+        <v>1208</v>
       </c>
       <c r="D27" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="E27" t="s">
-        <v>1183</v>
+        <v>1269</v>
       </c>
       <c r="F27" t="s">
-        <v>1216</v>
+        <v>1303</v>
       </c>
       <c r="G27" t="s">
-        <v>1216</v>
+        <v>1303</v>
       </c>
       <c r="H27" t="s">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="I27" t="s">
-        <v>1280</v>
+        <v>1373</v>
       </c>
       <c r="J27" t="s">
-        <v>1216</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10387,25 +10999,25 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>1151</v>
+        <v>1237</v>
       </c>
       <c r="E28" t="s">
-        <v>1184</v>
+        <v>1270</v>
       </c>
       <c r="F28" t="s">
-        <v>1217</v>
+        <v>1304</v>
       </c>
       <c r="G28" t="s">
-        <v>1234</v>
+        <v>1322</v>
       </c>
       <c r="H28" t="s">
-        <v>1261</v>
+        <v>1351</v>
       </c>
       <c r="I28" t="s">
-        <v>1281</v>
+        <v>1374</v>
       </c>
       <c r="J28" t="s">
-        <v>1304</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10413,31 +11025,31 @@
         <v>19330051920298</v>
       </c>
       <c r="B29" t="s">
-        <v>1112</v>
+        <v>1198</v>
       </c>
       <c r="C29" t="s">
-        <v>1123</v>
+        <v>1209</v>
       </c>
       <c r="D29" t="s">
-        <v>1150</v>
+        <v>1236</v>
       </c>
       <c r="E29" t="s">
-        <v>1185</v>
+        <v>1271</v>
       </c>
       <c r="F29" t="s">
-        <v>1218</v>
+        <v>1305</v>
       </c>
       <c r="G29" t="s">
-        <v>1235</v>
+        <v>1323</v>
       </c>
       <c r="H29" t="s">
-        <v>1262</v>
+        <v>1352</v>
       </c>
       <c r="I29" t="s">
-        <v>1282</v>
+        <v>1375</v>
       </c>
       <c r="J29" t="s">
-        <v>1305</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10445,31 +11057,31 @@
         <v>19330051920299</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="C30" t="s">
-        <v>1124</v>
+        <v>1210</v>
       </c>
       <c r="D30" t="s">
-        <v>1152</v>
+        <v>1238</v>
       </c>
       <c r="E30" t="s">
-        <v>1186</v>
+        <v>1272</v>
       </c>
       <c r="F30" t="s">
-        <v>1219</v>
+        <v>1306</v>
       </c>
       <c r="G30" t="s">
-        <v>1236</v>
+        <v>1324</v>
       </c>
       <c r="H30" t="s">
-        <v>1263</v>
+        <v>1353</v>
       </c>
       <c r="I30" t="s">
-        <v>1283</v>
+        <v>1376</v>
       </c>
       <c r="J30" t="s">
-        <v>1306</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10477,13 +11089,28 @@
         <v>19330051920301</v>
       </c>
       <c r="B31" t="s">
-        <v>1113</v>
+        <v>1199</v>
       </c>
       <c r="C31" t="s">
-        <v>1125</v>
+        <v>1211</v>
       </c>
       <c r="D31" t="s">
-        <v>1153</v>
+        <v>1239</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10491,28 +11118,28 @@
         <v>18330051920346</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="D32" t="s">
-        <v>1154</v>
+        <v>1240</v>
       </c>
       <c r="E32" t="s">
-        <v>1187</v>
+        <v>1274</v>
       </c>
       <c r="F32" t="s">
-        <v>1220</v>
+        <v>1308</v>
       </c>
       <c r="H32" t="s">
-        <v>1264</v>
+        <v>1355</v>
       </c>
       <c r="I32" t="s">
-        <v>1284</v>
+        <v>1378</v>
       </c>
       <c r="J32" t="s">
-        <v>1307</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10520,31 +11147,31 @@
         <v>19330051920443</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C33" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="D33" t="s">
-        <v>1155</v>
+        <v>1241</v>
       </c>
       <c r="E33" t="s">
-        <v>1188</v>
+        <v>1275</v>
       </c>
       <c r="F33" t="s">
-        <v>1221</v>
+        <v>1309</v>
       </c>
       <c r="G33" t="s">
-        <v>1237</v>
+        <v>1325</v>
       </c>
       <c r="H33" t="s">
-        <v>1265</v>
+        <v>1356</v>
       </c>
       <c r="I33" t="s">
-        <v>1285</v>
+        <v>1379</v>
       </c>
       <c r="J33" t="s">
-        <v>1237</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -10552,25 +11179,28 @@
         <v>19330051920300</v>
       </c>
       <c r="B34" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D34" t="s">
-        <v>1156</v>
+        <v>1242</v>
       </c>
       <c r="E34" t="s">
-        <v>1189</v>
+        <v>1276</v>
       </c>
       <c r="F34" t="s">
-        <v>1222</v>
+        <v>1310</v>
       </c>
       <c r="H34" t="s">
-        <v>756</v>
+        <v>836</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1276</v>
       </c>
       <c r="J34" t="s">
-        <v>799</v>
+        <v>881</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -10578,28 +11208,28 @@
         <v>19330051920305</v>
       </c>
       <c r="B35" t="s">
-        <v>1114</v>
+        <v>1200</v>
       </c>
       <c r="C35" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>1157</v>
+        <v>1243</v>
       </c>
       <c r="E35" t="s">
-        <v>1190</v>
+        <v>1277</v>
       </c>
       <c r="F35" t="s">
-        <v>1223</v>
+        <v>1311</v>
       </c>
       <c r="H35" t="s">
-        <v>1266</v>
+        <v>1357</v>
       </c>
       <c r="I35" t="s">
-        <v>1286</v>
+        <v>1380</v>
       </c>
       <c r="J35" t="s">
-        <v>1308</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
